--- a/parabolic/2025/07/11/parabolic.xlsx
+++ b/parabolic/2025/07/11/parabolic.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,7 +473,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>190A</t>
+          <t>166A</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -482,10 +482,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>218</v>
+        <v>675</v>
       </c>
       <c r="D2" t="n">
-        <v>198100</v>
+        <v>212800</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -496,7 +496,7 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>197A</t>
+          <t>186A</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>542</v>
+        <v>671</v>
       </c>
       <c r="D3" t="n">
-        <v>120500</v>
+        <v>711800</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -528,10 +528,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D4" t="n">
-        <v>198800</v>
+        <v>383800</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -542,7 +542,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2181</t>
+          <t>2341</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -551,10 +551,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>284.8999938964844</v>
+        <v>177</v>
       </c>
       <c r="D5" t="n">
-        <v>1122700</v>
+        <v>3091000</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -565,7 +565,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2330</t>
+          <t>2435</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -574,10 +574,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>168</v>
+        <v>242</v>
       </c>
       <c r="D6" t="n">
-        <v>255300</v>
+        <v>1255900</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -588,7 +588,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2341</t>
+          <t>2931</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -597,10 +597,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>177</v>
+        <v>411</v>
       </c>
       <c r="D7" t="n">
-        <v>2504900</v>
+        <v>451000</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
@@ -611,7 +611,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2435</t>
+          <t>3810</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -620,10 +620,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>246</v>
+        <v>342</v>
       </c>
       <c r="D8" t="n">
-        <v>978800</v>
+        <v>412800</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
@@ -634,7 +634,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>3686</t>
+          <t>3907</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -643,10 +643,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>190</v>
+        <v>931</v>
       </c>
       <c r="D9" t="n">
-        <v>4608100</v>
+        <v>584400</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
@@ -657,7 +657,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>3747</t>
+          <t>4565</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -666,10 +666,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>520</v>
+        <v>886</v>
       </c>
       <c r="D10" t="n">
-        <v>574200</v>
+        <v>363100</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -680,7 +680,7 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>3807</t>
+          <t>4582</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -689,10 +689,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>150</v>
+        <v>181</v>
       </c>
       <c r="D11" t="n">
-        <v>310000</v>
+        <v>174100</v>
       </c>
       <c r="E11" t="n">
         <v>1</v>
@@ -703,7 +703,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>3907</t>
+          <t>5408</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -712,10 +712,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>981</v>
+        <v>636</v>
       </c>
       <c r="D12" t="n">
-        <v>370100</v>
+        <v>136800</v>
       </c>
       <c r="E12" t="n">
         <v>1</v>
@@ -726,7 +726,7 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>4170</t>
+          <t>6031</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -735,10 +735,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>210</v>
+        <v>395</v>
       </c>
       <c r="D13" t="n">
-        <v>126100</v>
+        <v>199600</v>
       </c>
       <c r="E13" t="n">
         <v>1</v>
@@ -749,7 +749,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>4259</t>
+          <t>6069</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -758,10 +758,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>427</v>
+        <v>936</v>
       </c>
       <c r="D14" t="n">
-        <v>433600</v>
+        <v>130400</v>
       </c>
       <c r="E14" t="n">
         <v>1</v>
@@ -772,7 +772,7 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>4565</t>
+          <t>6663</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -781,10 +781,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>886</v>
+        <v>273</v>
       </c>
       <c r="D15" t="n">
-        <v>274400</v>
+        <v>1261200</v>
       </c>
       <c r="E15" t="n">
         <v>1</v>
@@ -795,7 +795,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>4576</t>
+          <t>7186</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -804,10 +804,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>135</v>
+        <v>955.9000244140625</v>
       </c>
       <c r="D16" t="n">
-        <v>739700</v>
+        <v>2178200</v>
       </c>
       <c r="E16" t="n">
         <v>1</v>
@@ -818,7 +818,7 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>4582</t>
+          <t>7571</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -827,10 +827,10 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>182</v>
+        <v>100</v>
       </c>
       <c r="D17" t="n">
-        <v>132000</v>
+        <v>453500</v>
       </c>
       <c r="E17" t="n">
         <v>1</v>
@@ -841,7 +841,7 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>4593</t>
+          <t>7776</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -850,10 +850,10 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D18" t="n">
-        <v>4504200</v>
+        <v>288800</v>
       </c>
       <c r="E18" t="n">
         <v>1</v>
@@ -864,7 +864,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>4755</t>
+          <t>7859</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -873,10 +873,10 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>812.7999877929688</v>
+        <v>234</v>
       </c>
       <c r="D19" t="n">
-        <v>8347900</v>
+        <v>107300</v>
       </c>
       <c r="E19" t="n">
         <v>1</v>
@@ -887,7 +887,7 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>6613</t>
+          <t>8789</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -896,10 +896,10 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>255</v>
+        <v>108</v>
       </c>
       <c r="D20" t="n">
-        <v>395900</v>
+        <v>1220300</v>
       </c>
       <c r="E20" t="n">
         <v>1</v>
@@ -910,7 +910,7 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>6663</t>
+          <t>8897</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -919,10 +919,10 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>335</v>
+        <v>380</v>
       </c>
       <c r="D21" t="n">
-        <v>636100</v>
+        <v>603100</v>
       </c>
       <c r="E21" t="n">
         <v>1</v>
@@ -933,7 +933,7 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>6986</t>
+          <t>9424</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -942,177 +942,16 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>623</v>
+        <v>155</v>
       </c>
       <c r="D22" t="n">
-        <v>139700</v>
+        <v>868900</v>
       </c>
       <c r="E22" t="n">
         <v>1</v>
       </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="inlineStr">
-        <is>
-          <t>7177</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>2025-07-11</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
-        <v>822</v>
-      </c>
-      <c r="D23" t="n">
-        <v>202500</v>
-      </c>
-      <c r="E23" t="n">
-        <v>1</v>
-      </c>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>7186</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>2025-07-11</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
-        <v>947.0999755859375</v>
-      </c>
-      <c r="D24" t="n">
-        <v>1221400</v>
-      </c>
-      <c r="E24" t="n">
-        <v>1</v>
-      </c>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="inlineStr">
-        <is>
-          <t>7776</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>2025-07-11</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
-        <v>494</v>
-      </c>
-      <c r="D25" t="n">
-        <v>185100</v>
-      </c>
-      <c r="E25" t="n">
-        <v>1</v>
-      </c>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="inlineStr">
-        <is>
-          <t>7779</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>2025-07-11</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
-        <v>183</v>
-      </c>
-      <c r="D26" t="n">
-        <v>770800</v>
-      </c>
-      <c r="E26" t="n">
-        <v>1</v>
-      </c>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="inlineStr">
-        <is>
-          <t>8698</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>2025-07-11</t>
-        </is>
-      </c>
-      <c r="C27" t="n">
-        <v>771</v>
-      </c>
-      <c r="D27" t="n">
-        <v>1730900</v>
-      </c>
-      <c r="E27" t="n">
-        <v>1</v>
-      </c>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="inlineStr">
-        <is>
-          <t>8789</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>2025-07-11</t>
-        </is>
-      </c>
-      <c r="C28" t="n">
-        <v>111</v>
-      </c>
-      <c r="D28" t="n">
-        <v>943700</v>
-      </c>
-      <c r="E28" t="n">
-        <v>1</v>
-      </c>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="inlineStr">
-        <is>
-          <t>8897</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>2025-07-11</t>
-        </is>
-      </c>
-      <c r="C29" t="n">
-        <v>378</v>
-      </c>
-      <c r="D29" t="n">
-        <v>335400</v>
-      </c>
-      <c r="E29" t="n">
-        <v>1</v>
-      </c>
-      <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/parabolic/2025/07/11/parabolic.xlsx
+++ b/parabolic/2025/07/11/parabolic.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,10 +482,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="D2" t="n">
-        <v>212800</v>
+        <v>298200</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D3" t="n">
-        <v>711800</v>
+        <v>929900</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -528,10 +528,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D4" t="n">
-        <v>383800</v>
+        <v>451900</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -551,10 +551,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="D5" t="n">
-        <v>3091000</v>
+        <v>3956000</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -574,10 +574,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="D6" t="n">
-        <v>1255900</v>
+        <v>1701500</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -597,10 +597,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="D7" t="n">
-        <v>451000</v>
+        <v>663000</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
@@ -620,10 +620,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D8" t="n">
-        <v>412800</v>
+        <v>521600</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
@@ -643,10 +643,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>931</v>
+        <v>951</v>
       </c>
       <c r="D9" t="n">
-        <v>584400</v>
+        <v>658200</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
@@ -657,7 +657,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>4565</t>
+          <t>3940</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -666,10 +666,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>886</v>
+        <v>142</v>
       </c>
       <c r="D10" t="n">
-        <v>363100</v>
+        <v>237000</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -680,7 +680,7 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>4582</t>
+          <t>4565</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -689,10 +689,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>181</v>
+        <v>879</v>
       </c>
       <c r="D11" t="n">
-        <v>174100</v>
+        <v>455600</v>
       </c>
       <c r="E11" t="n">
         <v>1</v>
@@ -703,7 +703,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>5408</t>
+          <t>4582</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -712,10 +712,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>636</v>
+        <v>180</v>
       </c>
       <c r="D12" t="n">
-        <v>136800</v>
+        <v>246800</v>
       </c>
       <c r="E12" t="n">
         <v>1</v>
@@ -726,7 +726,7 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>6031</t>
+          <t>5408</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -735,10 +735,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>395</v>
+        <v>636</v>
       </c>
       <c r="D13" t="n">
-        <v>199600</v>
+        <v>174200</v>
       </c>
       <c r="E13" t="n">
         <v>1</v>
@@ -749,7 +749,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>6069</t>
+          <t>5590</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -758,10 +758,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>936</v>
+        <v>939</v>
       </c>
       <c r="D14" t="n">
-        <v>130400</v>
+        <v>101200</v>
       </c>
       <c r="E14" t="n">
         <v>1</v>
@@ -772,7 +772,7 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>6663</t>
+          <t>6031</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -781,10 +781,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>273</v>
+        <v>386</v>
       </c>
       <c r="D15" t="n">
-        <v>1261200</v>
+        <v>257600</v>
       </c>
       <c r="E15" t="n">
         <v>1</v>
@@ -795,7 +795,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>7186</t>
+          <t>6069</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -804,10 +804,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>955.9000244140625</v>
+        <v>931</v>
       </c>
       <c r="D16" t="n">
-        <v>2178200</v>
+        <v>158400</v>
       </c>
       <c r="E16" t="n">
         <v>1</v>
@@ -818,7 +818,7 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>7571</t>
+          <t>6197</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -827,10 +827,10 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>100</v>
+        <v>425</v>
       </c>
       <c r="D17" t="n">
-        <v>453500</v>
+        <v>150700</v>
       </c>
       <c r="E17" t="n">
         <v>1</v>
@@ -841,7 +841,7 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>7776</t>
+          <t>6663</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -850,10 +850,10 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>493</v>
+        <v>273</v>
       </c>
       <c r="D18" t="n">
-        <v>288800</v>
+        <v>1298100</v>
       </c>
       <c r="E18" t="n">
         <v>1</v>
@@ -864,7 +864,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>7859</t>
+          <t>7186</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -873,10 +873,10 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>234</v>
+        <v>947.7999877929688</v>
       </c>
       <c r="D19" t="n">
-        <v>107300</v>
+        <v>2604600</v>
       </c>
       <c r="E19" t="n">
         <v>1</v>
@@ -887,7 +887,7 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>8789</t>
+          <t>7776</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -896,10 +896,10 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>108</v>
+        <v>489</v>
       </c>
       <c r="D20" t="n">
-        <v>1220300</v>
+        <v>392300</v>
       </c>
       <c r="E20" t="n">
         <v>1</v>
@@ -910,7 +910,7 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>8897</t>
+          <t>7859</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -919,10 +919,10 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>380</v>
+        <v>229</v>
       </c>
       <c r="D21" t="n">
-        <v>603100</v>
+        <v>135400</v>
       </c>
       <c r="E21" t="n">
         <v>1</v>
@@ -933,7 +933,7 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>9424</t>
+          <t>8614</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -942,16 +942,85 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>155</v>
+        <v>507</v>
       </c>
       <c r="D22" t="n">
-        <v>868900</v>
+        <v>383900</v>
       </c>
       <c r="E22" t="n">
         <v>1</v>
       </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>8789</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2025-07-11</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>109</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1465600</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>8897</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2025-07-11</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>379</v>
+      </c>
+      <c r="D24" t="n">
+        <v>720700</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1</v>
+      </c>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>9424</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2025-07-11</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>156</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1081800</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1</v>
+      </c>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/parabolic/2025/07/11/parabolic.xlsx
+++ b/parabolic/2025/07/11/parabolic.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,10 +482,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="D2" t="n">
-        <v>298200</v>
+        <v>333000</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>670</v>
+        <v>676</v>
       </c>
       <c r="D3" t="n">
-        <v>929900</v>
+        <v>1282700</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -528,10 +528,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D4" t="n">
-        <v>451900</v>
+        <v>623100</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -551,10 +551,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D5" t="n">
-        <v>3956000</v>
+        <v>4113000</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -574,10 +574,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="D6" t="n">
-        <v>1701500</v>
+        <v>3648100</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -588,7 +588,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2931</t>
+          <t>2445</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -597,10 +597,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>416</v>
+        <v>328</v>
       </c>
       <c r="D7" t="n">
-        <v>663000</v>
+        <v>113700</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
@@ -611,7 +611,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>3810</t>
+          <t>2931</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -620,10 +620,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>339</v>
+        <v>414</v>
       </c>
       <c r="D8" t="n">
-        <v>521600</v>
+        <v>836200</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
@@ -634,7 +634,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>3907</t>
+          <t>3810</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -643,10 +643,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>951</v>
+        <v>344</v>
       </c>
       <c r="D9" t="n">
-        <v>658200</v>
+        <v>719200</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
@@ -657,7 +657,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>3940</t>
+          <t>3907</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -666,10 +666,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>142</v>
+        <v>950</v>
       </c>
       <c r="D10" t="n">
-        <v>237000</v>
+        <v>768500</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -680,7 +680,7 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>4565</t>
+          <t>3940</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -689,10 +689,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>879</v>
+        <v>144</v>
       </c>
       <c r="D11" t="n">
-        <v>455600</v>
+        <v>367600</v>
       </c>
       <c r="E11" t="n">
         <v>1</v>
@@ -703,7 +703,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>4582</t>
+          <t>4565</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -712,10 +712,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>180</v>
+        <v>882</v>
       </c>
       <c r="D12" t="n">
-        <v>246800</v>
+        <v>658300</v>
       </c>
       <c r="E12" t="n">
         <v>1</v>
@@ -726,7 +726,7 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>5408</t>
+          <t>4579</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -735,10 +735,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>636</v>
+        <v>543</v>
       </c>
       <c r="D13" t="n">
-        <v>174200</v>
+        <v>107400</v>
       </c>
       <c r="E13" t="n">
         <v>1</v>
@@ -749,7 +749,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>5590</t>
+          <t>4582</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -758,10 +758,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>939</v>
+        <v>179</v>
       </c>
       <c r="D14" t="n">
-        <v>101200</v>
+        <v>324000</v>
       </c>
       <c r="E14" t="n">
         <v>1</v>
@@ -772,7 +772,7 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>6031</t>
+          <t>4615</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -781,10 +781,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>386</v>
+        <v>137</v>
       </c>
       <c r="D15" t="n">
-        <v>257600</v>
+        <v>430100</v>
       </c>
       <c r="E15" t="n">
         <v>1</v>
@@ -795,7 +795,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>6069</t>
+          <t>4880</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -804,10 +804,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>931</v>
+        <v>736</v>
       </c>
       <c r="D16" t="n">
-        <v>158400</v>
+        <v>107000</v>
       </c>
       <c r="E16" t="n">
         <v>1</v>
@@ -818,7 +818,7 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>6197</t>
+          <t>5408</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -827,10 +827,10 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>425</v>
+        <v>638</v>
       </c>
       <c r="D17" t="n">
-        <v>150700</v>
+        <v>272300</v>
       </c>
       <c r="E17" t="n">
         <v>1</v>
@@ -841,7 +841,7 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>6663</t>
+          <t>5590</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -850,10 +850,10 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>273</v>
+        <v>950</v>
       </c>
       <c r="D18" t="n">
-        <v>1298100</v>
+        <v>110500</v>
       </c>
       <c r="E18" t="n">
         <v>1</v>
@@ -864,7 +864,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>7186</t>
+          <t>6031</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -873,10 +873,10 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>947.7999877929688</v>
+        <v>388</v>
       </c>
       <c r="D19" t="n">
-        <v>2604600</v>
+        <v>302200</v>
       </c>
       <c r="E19" t="n">
         <v>1</v>
@@ -887,7 +887,7 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>7776</t>
+          <t>6069</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -896,10 +896,10 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>489</v>
+        <v>935</v>
       </c>
       <c r="D20" t="n">
-        <v>392300</v>
+        <v>180200</v>
       </c>
       <c r="E20" t="n">
         <v>1</v>
@@ -910,7 +910,7 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>7859</t>
+          <t>6085</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -919,10 +919,10 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>229</v>
+        <v>308</v>
       </c>
       <c r="D21" t="n">
-        <v>135400</v>
+        <v>103500</v>
       </c>
       <c r="E21" t="n">
         <v>1</v>
@@ -933,7 +933,7 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>8614</t>
+          <t>6197</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -942,10 +942,10 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>507</v>
+        <v>425</v>
       </c>
       <c r="D22" t="n">
-        <v>383900</v>
+        <v>202700</v>
       </c>
       <c r="E22" t="n">
         <v>1</v>
@@ -956,7 +956,7 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>8789</t>
+          <t>6663</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -965,10 +965,10 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>109</v>
+        <v>270</v>
       </c>
       <c r="D23" t="n">
-        <v>1465600</v>
+        <v>1397700</v>
       </c>
       <c r="E23" t="n">
         <v>1</v>
@@ -979,7 +979,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>8897</t>
+          <t>6721</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -988,10 +988,10 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>379</v>
+        <v>107</v>
       </c>
       <c r="D24" t="n">
-        <v>720700</v>
+        <v>931300</v>
       </c>
       <c r="E24" t="n">
         <v>1</v>
@@ -1002,7 +1002,7 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>9424</t>
+          <t>7186</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1011,16 +1011,223 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>156</v>
+        <v>946.4000244140625</v>
       </c>
       <c r="D25" t="n">
-        <v>1081800</v>
+        <v>4043300</v>
       </c>
       <c r="E25" t="n">
         <v>1</v>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>7212</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2025-07-11</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>664</v>
+      </c>
+      <c r="D26" t="n">
+        <v>113200</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1</v>
+      </c>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>7571</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2025-07-11</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>100</v>
+      </c>
+      <c r="D27" t="n">
+        <v>730100</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1</v>
+      </c>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>7776</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2025-07-11</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>492</v>
+      </c>
+      <c r="D28" t="n">
+        <v>479100</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1</v>
+      </c>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>7859</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2025-07-11</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>229</v>
+      </c>
+      <c r="D29" t="n">
+        <v>150400</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1</v>
+      </c>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>8614</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>2025-07-11</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>508</v>
+      </c>
+      <c r="D30" t="n">
+        <v>443300</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1</v>
+      </c>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>8789</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2025-07-11</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>110</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1535800</v>
+      </c>
+      <c r="E31" t="n">
+        <v>1</v>
+      </c>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>8897</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2025-07-11</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>380</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1012300</v>
+      </c>
+      <c r="E32" t="n">
+        <v>1</v>
+      </c>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>9204</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>2025-07-11</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>492</v>
+      </c>
+      <c r="D33" t="n">
+        <v>148000</v>
+      </c>
+      <c r="E33" t="n">
+        <v>1</v>
+      </c>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>9424</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>2025-07-11</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>156</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1260300</v>
+      </c>
+      <c r="E34" t="n">
+        <v>1</v>
+      </c>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
